--- a/docs/_files/examples/MFMC_T1.xlsx
+++ b/docs/_files/examples/MFMC_T1.xlsx
@@ -59626,7 +59626,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>RL7</t>
+          <t>RL6</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -59678,7 +59678,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>RL7</t>
+          <t>RL6</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -59704,7 +59704,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RL7</t>
+          <t>RL6</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
@@ -59730,7 +59730,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RL7</t>
+          <t>RL6</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -59882,7 +59882,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="A4:A20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$12</formula1>
+      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'ACC.LBLTY_RMNNG_'!$B$1:$B$35</formula1>
@@ -60042,11 +60042,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RL11</t>
-        </is>
-      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>A3</t>
@@ -60225,7 +60220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -60242,9 +60237,7 @@
     <col width="13.5" customWidth="1" min="4" max="4"/>
     <col width="13.5" customWidth="1" min="5" max="5"/>
     <col width="14.85" customWidth="1" min="6" max="6"/>
-    <col width="22.95" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="20.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -60262,9 +60255,7 @@
         </is>
       </c>
       <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -60281,9 +60272,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
@@ -60318,17 +60307,7 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>SBSCRPTNS_CHRGS</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
           <t>RDMPTNS</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>RDMPTNS_CHRGS</t>
         </is>
       </c>
     </row>
@@ -60360,12 +60339,6 @@
       <c r="G4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
@@ -60395,12 +60368,6 @@
       <c r="G5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
@@ -60430,12 +60397,6 @@
       <c r="G6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
@@ -60465,12 +60426,6 @@
       <c r="G7" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
@@ -60498,12 +60453,6 @@
         <v>0</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60515,8 +60464,6 @@
       <c r="E9" s="13" t="n"/>
       <c r="F9" s="13" t="n"/>
       <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="n"/>
@@ -60526,8 +60473,6 @@
       <c r="E10" s="13" t="n"/>
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="11" t="n"/>
@@ -60537,8 +60482,6 @@
       <c r="E11" s="13" t="n"/>
       <c r="F11" s="13" t="n"/>
       <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n"/>
@@ -60548,8 +60491,6 @@
       <c r="E12" s="13" t="n"/>
       <c r="F12" s="13" t="n"/>
       <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n"/>
@@ -60559,8 +60500,6 @@
       <c r="E13" s="13" t="n"/>
       <c r="F13" s="13" t="n"/>
       <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="11" t="n"/>
@@ -60570,8 +60509,6 @@
       <c r="E14" s="13" t="n"/>
       <c r="F14" s="13" t="n"/>
       <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="n"/>
@@ -60581,8 +60518,6 @@
       <c r="E15" s="13" t="n"/>
       <c r="F15" s="13" t="n"/>
       <c r="G15" s="13" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="11" t="n"/>
@@ -60592,8 +60527,6 @@
       <c r="E16" s="13" t="n"/>
       <c r="F16" s="13" t="n"/>
       <c r="G16" s="13" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="n"/>
@@ -60603,8 +60536,6 @@
       <c r="E17" s="13" t="n"/>
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="n"/>
@@ -60614,8 +60545,6 @@
       <c r="E18" s="13" t="n"/>
       <c r="F18" s="13" t="n"/>
       <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="n"/>
@@ -60625,8 +60554,6 @@
       <c r="E19" s="13" t="n"/>
       <c r="F19" s="13" t="n"/>
       <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="11" t="n"/>
@@ -60636,8 +60563,6 @@
       <c r="E20" s="13" t="n"/>
       <c r="F20" s="13" t="n"/>
       <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="11" t="n"/>
@@ -60647,8 +60572,6 @@
       <c r="E21" s="13" t="n"/>
       <c r="F21" s="13" t="n"/>
       <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="11" t="n"/>
@@ -60658,8 +60581,6 @@
       <c r="E22" s="13" t="n"/>
       <c r="F22" s="13" t="n"/>
       <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="11" t="n"/>
@@ -60669,15 +60590,13 @@
       <c r="E23" s="13" t="n"/>
       <c r="F23" s="13" t="n"/>
       <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="D4:D20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
@@ -80074,7 +79993,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="C5" s="14" t="n">
@@ -80086,13 +80005,13 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.01713942307692308</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>IGRF00000AK30</t>
+          <t>IGRF00000AK20</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -80109,13 +80028,13 @@
         </is>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.0125125</v>
+        <v>0.01713942307692308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>IGRF00000AK4A</t>
+          <t>IGRF00000AK30</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
@@ -80132,13 +80051,13 @@
         </is>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.01251160714285714</v>
+        <v>0.0125125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>IGRF00000AK4B</t>
+          <t>IGRF00000AK4A</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -80155,15 +80074,31 @@
         </is>
       </c>
       <c r="E8" s="13" t="n">
+        <v>0.01251160714285714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>IGRF00000AK4B</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="n">
         <v>0.02502321428571428</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="n"/>
@@ -80722,7 +80657,7 @@
         <v>14.8356</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-0.005600961538461538</v>
+        <v>-0.1556009615384615</v>
       </c>
     </row>
     <row r="6">

--- a/docs/_files/examples/MFMC_T1.xlsx
+++ b/docs/_files/examples/MFMC_T1.xlsx
@@ -60348,7 +60348,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>_GR</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
       <c r="C5" s="14" t="n">
@@ -60360,10 +60360,10 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>0</v>
@@ -60372,12 +60372,12 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>IGRF00000AK30</t>
+          <t>IGRF00000AK20</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>EGRMFMC000</t>
+          <t>_GR</t>
         </is>
       </c>
       <c r="C6" s="14" t="n">
@@ -60389,10 +60389,10 @@
         </is>
       </c>
       <c r="E6" s="13" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>0</v>
@@ -60401,7 +60401,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>IGRF00000AK4A</t>
+          <t>IGRF00000AK30</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
@@ -60447,7 +60447,7 @@
         </is>
       </c>
       <c r="E8" s="13" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0</v>
@@ -60457,13 +60457,33 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>IGRF00000AK4A</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>EGRMFMC000</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="n"/>
